--- a/BalanceSheet/EMR_bal.xlsx
+++ b/BalanceSheet/EMR_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>2013000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>212000000.0</v>
+        <v>1928000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>2102000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>2058000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-167000000.0</v>
+        <v>2064000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1880000000.0</v>
@@ -1486,19 +1486,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>1694000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>243000000.0</v>
+        <v>1715000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-149000000.0</v>
+        <v>1426000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-65000000.0</v>
+        <v>1521000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-225000000.0</v>
+        <v>1649000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1874000000.0</v>
